--- a/02_( FLS-IQ) A054YVJ/DA ADDRESS LIST.xlsx
+++ b/02_( FLS-IQ) A054YVJ/DA ADDRESS LIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenryPC\Documents\SHR-Yuliet\02_( FLS-IQ) A054YVJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SHR-Yuliet\SHR-Yuliet\02_( FLS-IQ) A054YVJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBECE4-691B-4920-85FD-7D58C1F1CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D997C-61CA-45CC-B50D-88BB47C8CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B41B1568-8CC5-47D1-A39D-D3746FE66C24}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B41B1568-8CC5-47D1-A39D-D3746FE66C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3971,8 +3971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1434F902-9C44-47AD-8520-93EF1F5D8216}">
   <dimension ref="A1:Q510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E409" sqref="E409"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
